--- a/ePICreator/Flucelvax.xlsx
+++ b/ePICreator/Flucelvax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BFDBB0-1F4A-2643-91B8-992637EDC227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E53FED-2F64-CF47-ABEB-ADA0FCA94273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -625,6 +625,15 @@
 &amp;lt;p class="SmPC-PLtext" style="margin-left: 18.0pt; text-indent: -18.0pt; mso-list: l0 level1 lfo1; tab-stops: 36.0pt;"&amp;gt;&amp;lt;!-- [if !supportLists]--&amp;gt;&amp;lt;span style="font-family: Symbol; mso-fareast-font-family: Symbol; mso-bidi-font-family: Symbol; color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;lt;span style="mso-list: Ignore;"&amp;gt;&amp;#183;&amp;lt;span style="font: 7.0pt 'Times New Roman';"&amp;gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160; &amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;/span&amp;gt;&amp;lt;!--[endif]--&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;Fainting can occur following, or even before, any needle injection, therefore tell the doctor or nurse if you fainted with a previous injection.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;
 &amp;lt;p class="SmPC-PLtext" style="tab-stops: 36.0pt;"&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;&amp;#160;&amp;lt;/span&amp;gt;&amp;lt;span style="color: windowtext; mso-ansi-language: EN-US;"&amp;gt;As with all vaccines, Flucelvax Tetra may not fully protect all persons who are vaccinated.&amp;lt;/span&amp;gt;&amp;lt;/p&amp;gt;&lt;/div&gt;
                     </t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1414,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>151</v>
@@ -1466,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,8 +1697,8 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="K7">
-        <v>0.5</v>
+      <c r="K7" t="s">
+        <v>165</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
@@ -1712,8 +1721,8 @@
       <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="K8">
-        <v>0.2</v>
+      <c r="K8" t="s">
+        <v>166</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -1736,8 +1745,8 @@
       <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>0.2</v>
+      <c r="K9" t="s">
+        <v>166</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -1760,8 +1769,8 @@
       <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="K10">
-        <v>0.2</v>
+      <c r="K10" t="s">
+        <v>166</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
@@ -1781,8 +1790,11 @@
       <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="K11">
-        <v>0.01</v>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>167</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
